--- a/ControlChart_L2G3.xlsx
+++ b/ControlChart_L2G3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73E9B38-0DF7-764B-9151-3F674513BD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0D27DE-3C4A-804C-8A23-046E22E9273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5120" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5120" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snow Removed" sheetId="5" r:id="rId1"/>
@@ -215,7 +215,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-              <a:t>Control Chart for Requirement x </a:t>
+              <a:t>Control Chart for Requirement (Snow Removed) </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0"/>
           </a:p>
@@ -225,8 +225,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35115266841644793"/>
-          <c:y val="3.2407407407407406E-2"/>
+          <c:x val="0.23143492992608439"/>
+          <c:y val="3.2407311193316427E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1172,7 +1172,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-              <a:t>Control Chart for Y </a:t>
+              <a:t>Control Chart for Requirement (Line Detection) </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0"/>
           </a:p>
@@ -1182,8 +1182,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35115266841644793"/>
-          <c:y val="3.2407407407407406E-2"/>
+          <c:x val="0.24585722039147459"/>
+          <c:y val="3.2407557993405979E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3161,7 +3161,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>370670</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>182216</xdr:rowOff>
     </xdr:to>
@@ -3542,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96C0906-86A4-144A-B55D-4680E30A6AB1}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3702,7 +3702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C0F517-4FE7-1648-8D40-8A8997F48427}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3847,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568741-7507-425F-A1F8-626C3AF176B5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView showGridLines="0" topLeftCell="G6" zoomScale="256" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
